--- a/public/form-template/KODE 6 = NON AKTIF MENINGGAL.xlsx
+++ b/public/form-template/KODE 6 = NON AKTIF MENINGGAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alles Uber Gitta\Kerja Praktek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alles Uber Gitta\Kerja Praktek\DATA EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -161,10 +161,10 @@
     <t>WARNA KUNING WAJIB DIISI</t>
   </si>
   <si>
-    <t>No Kartu Kel+D7:AA7uarga</t>
-  </si>
-  <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>No Kartu Keluarga</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -274,9 +280,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -315,9 +318,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,6 +326,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C9:C11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,361 +2708,361 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
-    <row r="7" spans="1:41" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC7" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ7" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7">
+        <v>12</v>
+      </c>
+      <c r="M8" s="7">
+        <v>13</v>
+      </c>
+      <c r="N8" s="7">
+        <v>14</v>
+      </c>
+      <c r="O8" s="7">
+        <v>15</v>
+      </c>
+      <c r="P8" s="7">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>17</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7">
+        <v>18</v>
+      </c>
+      <c r="T8" s="7">
+        <v>19</v>
+      </c>
+      <c r="U8" s="7">
+        <v>20</v>
+      </c>
+      <c r="V8" s="7">
+        <v>21</v>
+      </c>
+      <c r="W8" s="7">
+        <v>22</v>
+      </c>
+      <c r="X8" s="7">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>26</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>28</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>29</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>31</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>32</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>33</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>34</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>35</v>
+      </c>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+    </row>
+    <row r="9" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="V7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="W7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="X7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ7" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8">
-        <v>7</v>
-      </c>
-      <c r="H8" s="8">
-        <v>8</v>
-      </c>
-      <c r="I8" s="8">
-        <v>9</v>
-      </c>
-      <c r="J8" s="8">
-        <v>10</v>
-      </c>
-      <c r="K8" s="8">
-        <v>11</v>
-      </c>
-      <c r="L8" s="8">
-        <v>12</v>
-      </c>
-      <c r="M8" s="8">
-        <v>13</v>
-      </c>
-      <c r="N8" s="8">
-        <v>14</v>
-      </c>
-      <c r="O8" s="8">
-        <v>15</v>
-      </c>
-      <c r="P8" s="8">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>17</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8">
-        <v>18</v>
-      </c>
-      <c r="T8" s="8">
-        <v>19</v>
-      </c>
-      <c r="U8" s="8">
-        <v>20</v>
-      </c>
-      <c r="V8" s="8">
-        <v>21</v>
-      </c>
-      <c r="W8" s="8">
-        <v>22</v>
-      </c>
-      <c r="X8" s="8">
-        <v>23</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>25</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>26</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>28</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>29</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>30</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>31</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>32</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>33</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>34</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>35</v>
-      </c>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-    </row>
-    <row r="9" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
